--- a/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21397</v>
+        <v>22423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46547</v>
+        <v>47050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1202538984796797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07954438213678822</v>
+        <v>0.08335547962457368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.173037235074579</v>
+        <v>0.1749083430203922</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -762,19 +762,19 @@
         <v>45446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35927</v>
+        <v>36476</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55152</v>
+        <v>56287</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1635194937138269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1292714796243925</v>
+        <v>0.1312442369317889</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.198444088617152</v>
+        <v>0.2025267136099866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -783,19 +783,19 @@
         <v>77794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62999</v>
+        <v>63347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93997</v>
+        <v>93330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1422396376068625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151879838544399</v>
+        <v>0.1158242203717638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1718649191796546</v>
+        <v>0.1706465645234944</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8045</v>
+        <v>8181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01113012346111014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002701264564906705</v>
+        <v>0.002713202951401436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02990837556386926</v>
+        <v>0.0304142159481903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1809</v>
+        <v>1961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8674</v>
+        <v>8707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01561335005502785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006507964335652361</v>
+        <v>0.007057445334596308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03120870424780786</v>
+        <v>0.03133012179345711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>7333</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3772</v>
+        <v>3941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13295</v>
+        <v>14764</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01340830892945958</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006895991996682588</v>
+        <v>0.007205042966837125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02430893437380601</v>
+        <v>0.02699438987558097</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>11860</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6779</v>
+        <v>6470</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19717</v>
+        <v>19684</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04408919810809283</v>
+        <v>0.04408919810809284</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02520003285742808</v>
+        <v>0.02405299436610682</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07329647561183775</v>
+        <v>0.07317336766336881</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -904,19 +904,19 @@
         <v>11677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7109</v>
+        <v>6803</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17784</v>
+        <v>18094</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04201402046259251</v>
+        <v>0.0420140204625925</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02557957154116763</v>
+        <v>0.02447867150792853</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06398888020616771</v>
+        <v>0.06510342186409621</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -925,19 +925,19 @@
         <v>23537</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15770</v>
+        <v>16338</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33692</v>
+        <v>33468</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0430346809077719</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02883342539184932</v>
+        <v>0.02987291284054637</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06160237760083834</v>
+        <v>0.06119383637359969</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>196625</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181524</v>
+        <v>180299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211583</v>
+        <v>212393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7309506984214009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6748111909085539</v>
+        <v>0.6702574974356292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7865563540109534</v>
+        <v>0.7895693960922134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -975,19 +975,19 @@
         <v>198686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187871</v>
+        <v>186656</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211372</v>
+        <v>210081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7148984215779437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6759853885013707</v>
+        <v>0.671611475720448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7605454400670398</v>
+        <v>0.7558983672874184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>484</v>
@@ -996,19 +996,19 @@
         <v>395311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>374383</v>
+        <v>375600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413467</v>
+        <v>414196</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7227936126545783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6845278863164551</v>
+        <v>0.6867544832259606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7559905669659421</v>
+        <v>0.7573234293211057</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>25172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15232</v>
+        <v>16560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36410</v>
+        <v>36631</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09357608152971633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05662519700799128</v>
+        <v>0.06156118695385612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.135352052852826</v>
+        <v>0.1361747284346473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -1046,19 +1046,19 @@
         <v>17774</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12279</v>
+        <v>12514</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25146</v>
+        <v>25672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06395471419060909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04418277207617222</v>
+        <v>0.0450259447738936</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09047822009561252</v>
+        <v>0.09237269355909859</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -1067,19 +1067,19 @@
         <v>42946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32503</v>
+        <v>31267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56813</v>
+        <v>54639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07852375990132765</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05942903445077245</v>
+        <v>0.05716931282915064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1038786115681126</v>
+        <v>0.09990333511336341</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>149026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120060</v>
+        <v>121455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>181038</v>
+        <v>178087</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09214587915490952</v>
+        <v>0.0921458791549095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07423519003799417</v>
+        <v>0.07509795034580068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1119396269910304</v>
+        <v>0.110114809894658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -1192,19 +1192,19 @@
         <v>150677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129266</v>
+        <v>129284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176017</v>
+        <v>174898</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09712582412128218</v>
+        <v>0.09712582412128219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08332411234391245</v>
+        <v>0.0833360390633056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1134595800690578</v>
+        <v>0.1127383958804417</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -1213,19 +1213,19 @@
         <v>299703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264790</v>
+        <v>262803</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>339668</v>
+        <v>339110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09458404487145074</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08356556795459157</v>
+        <v>0.08293856540112188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1071966039912046</v>
+        <v>0.1070206173005849</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3287</v>
+        <v>2662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25754</v>
+        <v>24787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.005760660116882861</v>
+        <v>0.00576066011688286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002032380563338519</v>
+        <v>0.001645682581175801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01592414322011757</v>
+        <v>0.01532657210902498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1263,19 +1263,19 @@
         <v>14373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9135</v>
+        <v>8874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23066</v>
+        <v>22990</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.009264878237254286</v>
+        <v>0.009264878237254285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005888083764142997</v>
+        <v>0.005720188812948283</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01486795428163524</v>
+        <v>0.01481929397089668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1284,19 +1284,19 @@
         <v>23690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14923</v>
+        <v>14553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39251</v>
+        <v>38117</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.007476314515087051</v>
+        <v>0.007476314515087052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004709459286738544</v>
+        <v>0.00459282598177172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01238740031998021</v>
+        <v>0.01202929713795969</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>45561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32242</v>
+        <v>32790</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62385</v>
+        <v>62302</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02817099821168869</v>
+        <v>0.02817099821168868</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01993602000556966</v>
+        <v>0.02027476852575728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03857394744260479</v>
+        <v>0.03852251262380618</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1334,19 +1334,19 @@
         <v>33038</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23223</v>
+        <v>23914</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43730</v>
+        <v>45737</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02129635325205559</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01496972730495167</v>
+        <v>0.01541485878655315</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02818826354254744</v>
+        <v>0.02948169300240385</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -1355,19 +1355,19 @@
         <v>78599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63497</v>
+        <v>63528</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>98564</v>
+        <v>98159</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02480519321441396</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02003902376149691</v>
+        <v>0.0200488467534701</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03110609779758044</v>
+        <v>0.03097820665848635</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>1292415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1250800</v>
+        <v>1253065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1329852</v>
+        <v>1332205</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7991256325448434</v>
+        <v>0.799125632544843</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7733947024528695</v>
+        <v>0.7747947708913013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8222739969039482</v>
+        <v>0.8237288730174732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1517</v>
@@ -1405,19 +1405,19 @@
         <v>1207691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1173883</v>
+        <v>1174100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1236254</v>
+        <v>1236670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7784728994820204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7566804064482616</v>
+        <v>0.7568200194573871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7968843957363808</v>
+        <v>0.7971526709363859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2581</v>
@@ -1426,19 +1426,19 @@
         <v>2500106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2446919</v>
+        <v>2450025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2552013</v>
+        <v>2550913</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.789014118050873</v>
+        <v>0.7890141180508727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7722289171657249</v>
+        <v>0.7732089425034254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8053957426157085</v>
+        <v>0.805048660490061</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>120968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98971</v>
+        <v>98952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>150873</v>
+        <v>147292</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07479682997167576</v>
+        <v>0.07479682997167575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06119559796139396</v>
+        <v>0.061183714360089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09328785983695681</v>
+        <v>0.0910735083949131</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>199</v>
@@ -1476,19 +1476,19 @@
         <v>145580</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126390</v>
+        <v>124722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168711</v>
+        <v>166206</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09384004490738754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08147020692135105</v>
+        <v>0.08039521000142627</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1087507603458111</v>
+        <v>0.1071358621868935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>309</v>
@@ -1497,19 +1497,19 @@
         <v>266547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>237644</v>
+        <v>234804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302117</v>
+        <v>302056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08412032934817538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07499856738707766</v>
+        <v>0.07410224132790023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09534594492589511</v>
+        <v>0.09532652653534858</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>50768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35959</v>
+        <v>36185</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68928</v>
+        <v>69233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1083091211987689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07671528787718071</v>
+        <v>0.07719738271819308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1470528652745625</v>
+        <v>0.1477025833322023</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1622,19 +1622,19 @@
         <v>45487</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35161</v>
+        <v>34164</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58681</v>
+        <v>57632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09200753788717145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07112108288846371</v>
+        <v>0.06910462746059826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1186942700030935</v>
+        <v>0.1165729348821672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>99</v>
@@ -1643,19 +1643,19 @@
         <v>96255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79101</v>
+        <v>79117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118871</v>
+        <v>119468</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09994123104197446</v>
+        <v>0.09994123104197444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0821299550887363</v>
+        <v>0.08214649015017725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1234232768283932</v>
+        <v>0.1240430180506152</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6756</v>
+        <v>6131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002585535096022405</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01441393810912727</v>
+        <v>0.01307927516645299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1693,19 +1693,19 @@
         <v>2508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6358</v>
+        <v>5700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005073457371904433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001328216650874005</v>
+        <v>0.001242971457810296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0128612439119941</v>
+        <v>0.01152912710170436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1714,19 +1714,19 @@
         <v>3720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1273</v>
+        <v>1217</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9336</v>
+        <v>8490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003862629469328578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001321489410583647</v>
+        <v>0.001263840665250708</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009693773458019538</v>
+        <v>0.008814686142621521</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>26112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16313</v>
+        <v>16974</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38928</v>
+        <v>40012</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05570704301007277</v>
+        <v>0.05570704301007278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03480331362290947</v>
+        <v>0.03621299705165609</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08305026797263861</v>
+        <v>0.08536223459318958</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1764,19 +1764,19 @@
         <v>14346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9284</v>
+        <v>8601</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22056</v>
+        <v>21551</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02901792551837445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01877856311893628</v>
+        <v>0.01739693753058608</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04461283878104525</v>
+        <v>0.04359107425147525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1785,19 +1785,19 @@
         <v>40458</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30697</v>
+        <v>29437</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54525</v>
+        <v>54789</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04200704839706924</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03187290828574013</v>
+        <v>0.0305643778723761</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05661352745728958</v>
+        <v>0.05688747652154829</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>363529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>341030</v>
+        <v>340972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>382704</v>
+        <v>383277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7755591486419302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7275597476346286</v>
+        <v>0.7274370177053456</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8164672448089391</v>
+        <v>0.8176906770570296</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>517</v>
@@ -1835,19 +1835,19 @@
         <v>396872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>378518</v>
+        <v>380908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>411211</v>
+        <v>412087</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8027614607928546</v>
+        <v>0.8027614607928545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7656357012966931</v>
+        <v>0.7704708712169933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8317642580855706</v>
+        <v>0.8335361323244935</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>831</v>
@@ -1856,19 +1856,19 @@
         <v>760401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>733067</v>
+        <v>730537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>783248</v>
+        <v>784027</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7895225751225857</v>
+        <v>0.7895225751225855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7611419283326744</v>
+        <v>0.7585144031222933</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8132449646008312</v>
+        <v>0.8140534608609576</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>27111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17765</v>
+        <v>18403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40072</v>
+        <v>41084</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05783915205320588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0378991812048359</v>
+        <v>0.03926107136667177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08548946872701012</v>
+        <v>0.08764878706598614</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1906,19 +1906,19 @@
         <v>35170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26619</v>
+        <v>26253</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47725</v>
+        <v>46321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07113961842969518</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05384186772317084</v>
+        <v>0.05310340114359719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09653333962470621</v>
+        <v>0.09369496358292888</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>73</v>
@@ -1927,19 +1927,19 @@
         <v>62281</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>47940</v>
+        <v>48345</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78955</v>
+        <v>77515</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06466651596904224</v>
+        <v>0.06466651596904223</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04977629823481194</v>
+        <v>0.05019689268486046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0819787388814574</v>
+        <v>0.08048374863349288</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>232142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>199833</v>
+        <v>199040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>273212</v>
+        <v>272427</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09857353724184451</v>
+        <v>0.09857353724184452</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08485434256316307</v>
+        <v>0.08451749454687404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1160128111358793</v>
+        <v>0.1156794704652395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>321</v>
@@ -2052,19 +2052,19 @@
         <v>241610</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>213412</v>
+        <v>215322</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>268066</v>
+        <v>269015</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.103977867276173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09184301016564786</v>
+        <v>0.09266500810755868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1153636282201134</v>
+        <v>0.1157717412628818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>496</v>
@@ -2073,19 +2073,19 @@
         <v>473752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>428497</v>
+        <v>425023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>518316</v>
+        <v>520334</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1012575952862678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09158502160549641</v>
+        <v>0.09084246940865542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.110782472211898</v>
+        <v>0.1112139124989027</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>13523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6439</v>
+        <v>6118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30969</v>
+        <v>29422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005742018510474371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002734167785543752</v>
+        <v>0.002598024082754977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01315007893407129</v>
+        <v>0.01249328080142079</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2123,19 +2123,19 @@
         <v>21221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14683</v>
+        <v>14758</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29479</v>
+        <v>30185</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009132418174725815</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006319064929280464</v>
+        <v>0.006351197620166316</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0126863830228228</v>
+        <v>0.01299044240091204</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -2144,19 +2144,19 @@
         <v>34743</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24099</v>
+        <v>24110</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50915</v>
+        <v>50497</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007425858955976448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005150909231336366</v>
+        <v>0.005153263443599779</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01088230945009715</v>
+        <v>0.01079306521997347</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>83532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65431</v>
+        <v>66055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105629</v>
+        <v>103353</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03546987815044311</v>
+        <v>0.0354698781504431</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02778386914289612</v>
+        <v>0.02804853534430598</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04485269991225442</v>
+        <v>0.04388627713254864</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>84</v>
@@ -2194,19 +2194,19 @@
         <v>59061</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46934</v>
+        <v>46621</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72909</v>
+        <v>73346</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02541713459304233</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02019842170080972</v>
+        <v>0.0200636014408632</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03137693170151269</v>
+        <v>0.03156461223277723</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>162</v>
@@ -2215,19 +2215,19 @@
         <v>142593</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>120619</v>
+        <v>118743</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>168941</v>
+        <v>165077</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03047718765182924</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02578065617935292</v>
+        <v>0.0253796641198867</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03610878303448234</v>
+        <v>0.03528275716109126</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>1852568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1802021</v>
+        <v>1804738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1897720</v>
+        <v>1897271</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7866478754070148</v>
+        <v>0.7866478754070146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7651840859102307</v>
+        <v>0.7663380816674578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8058205610412252</v>
+        <v>0.8056298586868105</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2329</v>
@@ -2265,19 +2265,19 @@
         <v>1803249</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1767071</v>
+        <v>1764933</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1839594</v>
+        <v>1842579</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7760367229018317</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7604674327669837</v>
+        <v>0.7595472820043102</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7916781663344304</v>
+        <v>0.7929627590731996</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3896</v>
@@ -2286,19 +2286,19 @@
         <v>3655817</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3595663</v>
+        <v>3594334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3713869</v>
+        <v>3714850</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7813778513594036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7685207895266023</v>
+        <v>0.7682367611863758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7937857118605096</v>
+        <v>0.7939954125704494</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>173251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>147838</v>
+        <v>146392</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>205719</v>
+        <v>205928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07356669069022323</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06277600344191261</v>
+        <v>0.06216193572876719</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08735337439231526</v>
+        <v>0.08744211939974518</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>276</v>
@@ -2336,19 +2336,19 @@
         <v>198524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176789</v>
+        <v>174417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>226211</v>
+        <v>223287</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08543585705422717</v>
+        <v>0.08543585705422714</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07608211972632793</v>
+        <v>0.07506121851164953</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09735104020582686</v>
+        <v>0.09609257372246999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>436</v>
@@ -2357,19 +2357,19 @@
         <v>371775</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>335997</v>
+        <v>335590</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>408948</v>
+        <v>410231</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07946150674652296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07181455942006816</v>
+        <v>0.0717275754256137</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08740661974602303</v>
+        <v>0.08768100055963159</v>
       </c>
     </row>
     <row r="27">
